--- a/LKA.xlsx
+++ b/LKA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t xml:space="preserve">frame_name</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
   </si>
   <si>
     <t xml:space="preserve">Initial</t>
@@ -180,7 +183,10 @@
     <t xml:space="preserve">The indicator will be given to ONE frame, when the internal Lanes Detection algorithm decides on lane switch</t>
   </si>
   <si>
-    <t xml:space="preserve">0x76B</t>
+    <t xml:space="preserve">Lane Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x76A</t>
   </si>
   <si>
     <t xml:space="preserve">ref point 1 position</t>
@@ -216,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">number of next lane markers reported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x76B</t>
   </si>
   <si>
     <t xml:space="preserve">indicates how many extra lane markers are also reported, on top of
@@ -245,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,13 +276,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="0"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -314,7 +316,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,17 +340,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,14 +355,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 4" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -434,24 +431,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q65536"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.72680412371134"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2731958762887"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.72680412371134"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.9587628865979"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.639175257732"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.5463917525773"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.639175257732"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.8659793814433"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="36.6855670103093"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.8659793814433"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="17" min="14" style="0" width="8.72680412371134"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="36.6855670103093"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,16 +503,19 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>100</v>
@@ -535,15 +535,16 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0</v>
@@ -552,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0</v>
@@ -570,19 +571,20 @@
         <v>15</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="121.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>4</v>
@@ -591,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -611,15 +613,16 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>6</v>
@@ -628,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -640,15 +643,16 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>8</v>
@@ -657,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="n">
@@ -673,21 +677,22 @@
         <v>128</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>24</v>
@@ -696,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="n">
@@ -713,18 +718,19 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>40</v>
@@ -733,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="n">
@@ -749,21 +755,22 @@
         <v>0.00012</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>56</v>
@@ -772,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="n">
@@ -788,20 +795,21 @@
         <v>2.5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>100</v>
@@ -821,15 +829,16 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>0</v>
@@ -838,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -856,21 +865,22 @@
         <v>0.357</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>16</v>
@@ -879,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -888,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
@@ -897,19 +907,20 @@
         <v>127.996</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>31</v>
@@ -918,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0</v>
@@ -936,22 +947,23 @@
         <v>1</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>100</v>
@@ -971,15 +983,16 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>0</v>
@@ -988,14 +1001,14 @@
         <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="n">
         <v>-127.996</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>-127.996</v>
@@ -1004,21 +1017,22 @@
         <v>127.996</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>16</v>
@@ -1027,14 +1041,14 @@
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>0</v>
@@ -1043,21 +1057,22 @@
         <v>127.996</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>31</v>
@@ -1066,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1082,15 +1097,16 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>32</v>
@@ -1099,14 +1115,14 @@
         <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="n">
         <v>-127.996</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>-127.996</v>
@@ -1115,21 +1131,22 @@
         <v>127.996</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>48</v>
@@ -1138,14 +1155,14 @@
         <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>0</v>
@@ -1154,21 +1171,22 @@
         <v>127.996</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>63</v>
@@ -1177,10 +1195,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1193,16 +1211,17 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>100</v>
@@ -1222,15 +1241,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="81" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="n">
@@ -1254,19 +1274,20 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>100</v>
@@ -1286,15 +1307,16 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>0</v>
@@ -1303,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0</v>
@@ -1321,19 +1343,20 @@
         <v>15</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="121.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>4</v>
@@ -1342,10 +1365,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0</v>
@@ -1362,15 +1385,16 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>6</v>
@@ -1379,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1391,15 +1415,16 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>8</v>
@@ -1408,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="n">
@@ -1424,21 +1449,22 @@
         <v>128</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="67.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>24</v>
@@ -1447,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="n">
@@ -1464,18 +1490,19 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>40</v>
@@ -1484,7 +1511,7 @@
         <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="n">
@@ -1500,21 +1527,22 @@
         <v>0.00012</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>56</v>
@@ -1523,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="n">
@@ -1539,20 +1567,21 @@
         <v>2.5</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>100</v>
@@ -1572,15 +1601,16 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>0</v>
@@ -1589,7 +1619,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>0</v>
@@ -1607,21 +1637,22 @@
         <v>0.357</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>16</v>
@@ -1630,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J33" s="2" t="n">
         <v>0</v>
@@ -1639,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>0</v>
@@ -1648,19 +1679,20 @@
         <v>127.996</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>31</v>
@@ -1669,10 +1701,10 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0</v>
@@ -1687,16 +1719,15 @@
         <v>1</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="89" customFormat="false" ht="11" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
